--- a/二叉树/print_tree.xlsx
+++ b/二叉树/print_tree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:U18"/>
+  <dimension ref="G1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -585,8 +585,8 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>5</v>
+      <c r="J13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -595,8 +595,8 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2">
-        <v>10</v>
+      <c r="R13" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -605,141 +605,326 @@
     <row r="14" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <v>10</v>
+      </c>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="S15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>2</v>
+      <c r="H16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>6</v>
+      <c r="L16" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2">
-        <v>9</v>
+      <c r="P16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2">
+      <c r="T16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2">
         <v>11</v>
       </c>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G18" s="2">
+    <row r="19" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
         <v>14</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
         <v>7</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
         <v>15</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2">
         <v>4</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2">
+      <c r="R19" s="2"/>
+      <c r="S19" s="2">
         <v>8</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2">
+      <c r="T19" s="2"/>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
+        <v>9</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>10</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2">
+        <v>11</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2">
         <v>0</v>
       </c>
     </row>
